--- a/Code_python/Data/OIL.xlsx
+++ b/Code_python/Data/OIL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="5079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="5080">
   <si>
     <t>2000-08-23</t>
   </si>
@@ -15251,6 +15251,9 @@
   </si>
   <si>
     <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
   </si>
 </sst>
 </file>
@@ -15608,7 +15611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5080"/>
+  <dimension ref="A1:B5081"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -56254,6 +56257,14 @@
         <v>41.61000061035156</v>
       </c>
     </row>
+    <row r="5081" spans="1:2">
+      <c r="A5081" t="s">
+        <v>5079</v>
+      </c>
+      <c r="B5081">
+        <v>41.70000076293945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
